--- a/Roger Ebert Reviews/results_comp.xlsx
+++ b/Roger Ebert Reviews/results_comp.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astro\Desktop\sentiment work\Roger Ebert Reviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astro\Desktop\sentiment work\CS221\Roger Ebert Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" tabRatio="945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="6" r:id="rId1"/>
-    <sheet name="results_-1gram" sheetId="2" r:id="rId2"/>
-    <sheet name="results_1gram" sheetId="1" r:id="rId3"/>
-    <sheet name="results_2gram" sheetId="3" r:id="rId4"/>
-    <sheet name="results_3gram" sheetId="4" r:id="rId5"/>
-    <sheet name="results_4gram" sheetId="5" r:id="rId6"/>
+    <sheet name="Non_MM" sheetId="7" r:id="rId2"/>
+    <sheet name="results_-1gram" sheetId="2" r:id="rId3"/>
+    <sheet name="results_1gram" sheetId="1" r:id="rId4"/>
+    <sheet name="results_2gram" sheetId="3" r:id="rId5"/>
+    <sheet name="results_3gram" sheetId="4" r:id="rId6"/>
+    <sheet name="results_4gram" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
   <si>
     <t>Win1</t>
   </si>
@@ -50,9 +51,6 @@
     <t>Win8</t>
   </si>
   <si>
-    <t>Win9</t>
-  </si>
-  <si>
     <t>Split 1</t>
   </si>
   <si>
@@ -76,14 +74,11 @@
   <si>
     <t>Split 8</t>
   </si>
-  <si>
-    <t>Split 9</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,7 +651,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance</a:t>
+              <a:t>Performance vs. Number of Scores</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -697,10 +692,434 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>-1</c:v>
+            <c:v>1 Gram</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results_1gram!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.478057094162693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.4601619088197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.409884959522699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.893481039625001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.048572645930903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.895611418832502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.038346825734902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-35AF-405E-B456-FBFB13183893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Gram</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results_2gram!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.199829569663393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.608010225820102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.577758841073702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.274392841925803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.452066467831202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.7677886663826</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.527055815935199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-35AF-405E-B456-FBFB13183893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 Gram</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results_3gram!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.964209629313999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.179377929271404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.7656582871751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.164039198977399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.915636983383003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.995739241584999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.862803579036999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-35AF-405E-B456-FBFB13183893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 Gram</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results_4gram!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.981678738815503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.344695355773297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.482317852577701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.261610566680801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.1887515977844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.927993182786501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.9654878568385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-35AF-405E-B456-FBFB13183893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Non MM</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -764,36 +1183,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'results_-1gram'!$B$2:$B$10</c:f>
+              <c:f>Non_MM!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.325095867064306</c:v>
+                  <c:v>62.6757562846186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.111631870472898</c:v>
+                  <c:v>46.484874307626697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.447379633574698</c:v>
+                  <c:v>46.484874307626697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.397102684277797</c:v>
+                  <c:v>40.562420110779698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.346825734980797</c:v>
+                  <c:v>27.865360034085999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.000852151682999</c:v>
+                  <c:v>26.587132509586699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.419258628035699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.5193864507882</c:v>
+                  <c:v>26.587132509586699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,443 +1217,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-35AF-405E-B456-FBFB13183893}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Graphs!$J$5:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>results_1gram!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.478057094162693</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60.4601619088197</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54.409884959522699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49.893481039625001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49.041329356625397</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39.625053259480097</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36.940775458031503</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.038346825734902</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-35AF-405E-B456-FBFB13183893}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Graphs!$J$5:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>results_2gram!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>73.199829569663393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59.608010225820102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52.577758841073702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.274392841925803</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48.274392841925803</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39.369407754580301</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36.898167873881498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29.527055815935199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-35AF-405E-B456-FBFB13183893}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>3</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Graphs!$J$5:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>results_3gram!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.964209629313999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57.179377929271404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.7656582871751</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.164039198977399</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44.737963357477597</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.4069024286323</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33.063485300383398</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.862803579036999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-35AF-405E-B456-FBFB13183893}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>4</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Graphs!$J$5:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>results_4gram!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>68.981678738815503</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53.344695355773297</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44.482317852577701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.261610566680801</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39.497230507030203</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31.146144013634402</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.5470813804857</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.9654878568385</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-35AF-405E-B456-FBFB13183893}"/>
+              <c16:uniqueId val="{00000002-8F1A-442D-AF12-3198C712D7EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1256,7 +1236,7 @@
         <c:axId val="481331264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9"/>
+          <c:max val="8"/>
           <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1275,6 +1255,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Scores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1339,6 +1374,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2023,16 +2118,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2356,11 +2451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="J5:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2422,16 +2517,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174329BF-B2B2-44FA-A025-E750CA51349F}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2456,295 +2551,236 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>62.6757562846186</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>71.325095867064306</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>46.484874307626697</v>
+      </c>
+      <c r="C4">
+        <v>90.541116318704695</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>54.111631870472898</v>
-      </c>
-      <c r="C4">
-        <v>90.285470813804807</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>46.484874307626697</v>
+      </c>
+      <c r="C5">
+        <v>79.122283766510407</v>
+      </c>
+      <c r="D5">
+        <v>98.2530890498508</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>50.447379633574698</v>
-      </c>
-      <c r="C5">
-        <v>80.997017469109494</v>
-      </c>
-      <c r="D5">
-        <v>96.293140178951802</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>40.562420110779698</v>
+      </c>
+      <c r="C6">
+        <v>73.199829569663393</v>
+      </c>
+      <c r="D6">
+        <v>92.330634853003801</v>
+      </c>
+      <c r="E6">
+        <v>98.2530890498508</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>44.397102684277797</v>
-      </c>
-      <c r="C6">
-        <v>71.751171708564101</v>
-      </c>
-      <c r="D6">
-        <v>89.816787388155007</v>
-      </c>
-      <c r="E6">
-        <v>98.423519386450707</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>27.865360034085999</v>
+      </c>
+      <c r="C7">
+        <v>54.452492543672697</v>
+      </c>
+      <c r="D7">
+        <v>70.643374520664594</v>
+      </c>
+      <c r="E7">
+        <v>84.618662121857696</v>
+      </c>
+      <c r="F7">
+        <v>94.077545803152901</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>38.346825734980797</v>
-      </c>
-      <c r="C7">
-        <v>67.3199829569663</v>
-      </c>
-      <c r="D7">
-        <v>85.641244141457094</v>
-      </c>
-      <c r="E7">
-        <v>95.398380911802306</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>26.587132509586699</v>
+      </c>
+      <c r="C8">
+        <v>45.717937792927103</v>
+      </c>
+      <c r="D8">
+        <v>62.164465274818902</v>
+      </c>
+      <c r="E8">
+        <v>78.355347251810798</v>
+      </c>
+      <c r="F8">
+        <v>92.330634853003801</v>
+      </c>
+      <c r="G8">
+        <v>98.2530890498508</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>34.000852151682999</v>
-      </c>
-      <c r="C8">
-        <v>60.332339156369798</v>
-      </c>
-      <c r="D8">
-        <v>77.758841073711096</v>
-      </c>
-      <c r="E8">
-        <v>91.137622496804397</v>
-      </c>
-      <c r="F8">
-        <v>98.125266297400898</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="B9">
-        <v>28.419258628035699</v>
+        <v>26.587132509586699</v>
       </c>
       <c r="C9">
-        <v>53.302087771623299</v>
+        <v>43.033659991478402</v>
       </c>
       <c r="D9">
-        <v>71.325095867064306</v>
+        <v>59.224541968470298</v>
       </c>
       <c r="E9">
-        <v>87.0899020025564</v>
+        <v>73.199829569663393</v>
       </c>
       <c r="F9">
-        <v>94.077545803152901</v>
+        <v>84.618662121857696</v>
       </c>
       <c r="G9">
-        <v>98.040051129100902</v>
+        <v>92.330634853003801</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>98.2530890498508</v>
       </c>
       <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>23.5193864507882</v>
-      </c>
-      <c r="C10">
-        <v>45.760545377077101</v>
-      </c>
-      <c r="D10">
-        <v>62.377503195568799</v>
-      </c>
-      <c r="E10">
-        <v>76.3953983809118</v>
-      </c>
-      <c r="F10">
-        <v>86.876864081806502</v>
-      </c>
-      <c r="G10">
-        <v>93.779292714103093</v>
-      </c>
-      <c r="H10">
-        <v>98.040051129100902</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
         <v>100</v>
       </c>
     </row>
@@ -2754,14 +2790,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2786,295 +2824,236 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>71.325095867064306</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>74.478057094162693</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>54.111631870472898</v>
+      </c>
+      <c r="C4">
+        <v>90.285470813804807</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>60.4601619088197</v>
-      </c>
-      <c r="C4">
-        <v>92.501065189603693</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>50.447379633574698</v>
+      </c>
+      <c r="C5">
+        <v>80.997017469109494</v>
+      </c>
+      <c r="D5">
+        <v>96.293140178951802</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>54.409884959522699</v>
-      </c>
-      <c r="C5">
-        <v>85.641244141457094</v>
-      </c>
-      <c r="D5">
-        <v>97.912228376651001</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>45.419684703877202</v>
+      </c>
+      <c r="C6">
+        <v>72.347677886663803</v>
+      </c>
+      <c r="D6">
+        <v>89.731572219855096</v>
+      </c>
+      <c r="E6">
+        <v>98.423519386450707</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>49.893481039625001</v>
-      </c>
-      <c r="C6">
-        <v>80.826587132509502</v>
-      </c>
-      <c r="D6">
-        <v>94.375798892202795</v>
-      </c>
-      <c r="E6">
-        <v>98.977417980400503</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>31.401789518534301</v>
+      </c>
+      <c r="C7">
+        <v>56.028973157221898</v>
+      </c>
+      <c r="D7">
+        <v>71.921602045163993</v>
+      </c>
+      <c r="E7">
+        <v>85.470813804857201</v>
+      </c>
+      <c r="F7">
+        <v>94.716659565402594</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>49.041329356625397</v>
-      </c>
-      <c r="C7">
-        <v>77.077119727311398</v>
-      </c>
-      <c r="D7">
-        <v>91.819343843204095</v>
-      </c>
-      <c r="E7">
-        <v>97.784405624201099</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>29.527055815935199</v>
+      </c>
+      <c r="C8">
+        <v>51.981252662974001</v>
+      </c>
+      <c r="D8">
+        <v>67.447805709416201</v>
+      </c>
+      <c r="E8">
+        <v>81.124840221559396</v>
+      </c>
+      <c r="F8">
+        <v>91.052407328504401</v>
+      </c>
+      <c r="G8">
+        <v>98.125266297400898</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>39.625053259480097</v>
-      </c>
-      <c r="C8">
-        <v>70.132083510864902</v>
-      </c>
-      <c r="D8">
-        <v>86.706433745206596</v>
-      </c>
-      <c r="E8">
-        <v>94.801874733702505</v>
-      </c>
-      <c r="F8">
-        <v>98.977417980400503</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="B9">
-        <v>36.940775458031503</v>
+        <v>24.1585002130379</v>
       </c>
       <c r="C9">
-        <v>63.868768640817997</v>
+        <v>46.271836386876799</v>
       </c>
       <c r="D9">
-        <v>81.678738815509107</v>
+        <v>62.377503195568799</v>
       </c>
       <c r="E9">
-        <v>91.947166595653997</v>
+        <v>76.523221133361702</v>
       </c>
       <c r="F9">
-        <v>96.463570515551694</v>
+        <v>86.749041329356601</v>
       </c>
       <c r="G9">
-        <v>98.977417980400503</v>
+        <v>93.395824456753303</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>98.040051129100902</v>
       </c>
       <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>30.038346825734902</v>
-      </c>
-      <c r="C10">
-        <v>53.216872603323303</v>
-      </c>
-      <c r="D10">
-        <v>71.495526203664198</v>
-      </c>
-      <c r="E10">
-        <v>82.871751171708496</v>
-      </c>
-      <c r="F10">
-        <v>91.947166595653997</v>
-      </c>
-      <c r="G10">
-        <v>96.463570515551694</v>
-      </c>
-      <c r="H10">
-        <v>98.977417980400503</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
         <v>100</v>
       </c>
     </row>
@@ -3084,16 +3063,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3118,295 +3097,236 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>74.478057094162693</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>73.199829569663393</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>60.4601619088197</v>
+      </c>
+      <c r="C4">
+        <v>92.501065189603693</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>59.608010225820102</v>
-      </c>
-      <c r="C4">
-        <v>91.861951427354001</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>54.409884959522699</v>
+      </c>
+      <c r="C5">
+        <v>85.641244141457094</v>
+      </c>
+      <c r="D5">
+        <v>97.912228376651001</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>52.577758841073702</v>
-      </c>
-      <c r="C5">
-        <v>84.618662121857696</v>
-      </c>
-      <c r="D5">
+      <c r="B6">
+        <v>49.893481039625001</v>
+      </c>
+      <c r="C6">
+        <v>80.826587132509502</v>
+      </c>
+      <c r="D6">
+        <v>94.375798892202795</v>
+      </c>
+      <c r="E6">
+        <v>98.977417980400503</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>38.048572645930903</v>
+      </c>
+      <c r="C7">
+        <v>62.547933532168699</v>
+      </c>
+      <c r="D7">
+        <v>80.187473370259895</v>
+      </c>
+      <c r="E7">
+        <v>91.819343843204095</v>
+      </c>
+      <c r="F7">
         <v>97.784405624201099</v>
       </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>48.274392841925803</v>
-      </c>
-      <c r="C6">
-        <v>79.633574776310098</v>
-      </c>
-      <c r="D6">
-        <v>94.247976139752794</v>
-      </c>
-      <c r="E6">
-        <v>99.105240732850405</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>48.274392841925803</v>
-      </c>
-      <c r="C7">
-        <v>76.438005965061706</v>
-      </c>
-      <c r="D7">
-        <v>90.839369407754504</v>
-      </c>
-      <c r="E7">
-        <v>97.699190455901103</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>34.895611418832502</v>
+      </c>
+      <c r="C8">
+        <v>59.1819343843204</v>
+      </c>
+      <c r="D8">
+        <v>75.031955688112404</v>
+      </c>
+      <c r="E8">
+        <v>87.729015764806107</v>
+      </c>
+      <c r="F8">
+        <v>94.801874733702505</v>
+      </c>
+      <c r="G8">
+        <v>98.977417980400503</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>39.369407754580301</v>
-      </c>
-      <c r="C8">
-        <v>68.939071154665498</v>
-      </c>
-      <c r="D8">
-        <v>86.067319982956903</v>
-      </c>
-      <c r="E8">
-        <v>94.887089902002501</v>
-      </c>
-      <c r="F8">
-        <v>99.020025564550394</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="B9">
-        <v>36.898167873881498</v>
+        <v>30.038346825734902</v>
       </c>
       <c r="C9">
-        <v>62.590541116318697</v>
+        <v>53.216872603323303</v>
       </c>
       <c r="D9">
-        <v>80.443118875159698</v>
+        <v>71.495526203664198</v>
       </c>
       <c r="E9">
-        <v>90.967192160204505</v>
+        <v>82.871751171708496</v>
       </c>
       <c r="F9">
-        <v>96.420962931401704</v>
+        <v>91.947166595653997</v>
       </c>
       <c r="G9">
+        <v>96.463570515551694</v>
+      </c>
+      <c r="H9">
         <v>98.977417980400503</v>
       </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
       <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>29.527055815935199</v>
-      </c>
-      <c r="C10">
-        <v>51.086493395824398</v>
-      </c>
-      <c r="D10">
-        <v>69.194716659565401</v>
-      </c>
-      <c r="E10">
-        <v>81.593523647209196</v>
-      </c>
-      <c r="F10">
-        <v>90.839369407754504</v>
-      </c>
-      <c r="G10">
-        <v>96.335747763101807</v>
-      </c>
-      <c r="H10">
-        <v>98.977417980400503</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
         <v>100</v>
       </c>
     </row>
@@ -3416,16 +3336,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3450,295 +3370,236 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>73.199829569663393</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>71.964209629313999</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>59.608010225820102</v>
+      </c>
+      <c r="C4">
+        <v>91.861951427354001</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B5">
+        <v>52.577758841073702</v>
+      </c>
+      <c r="C5">
+        <v>84.618662121857696</v>
+      </c>
+      <c r="D5">
+        <v>97.784405624201099</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>48.274392841925803</v>
+      </c>
+      <c r="C6">
+        <v>79.633574776310098</v>
+      </c>
+      <c r="D6">
+        <v>94.247976139752794</v>
+      </c>
+      <c r="E6">
+        <v>99.105240732850405</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>37.452066467831202</v>
+      </c>
+      <c r="C7">
+        <v>60.801022582019598</v>
+      </c>
+      <c r="D7">
+        <v>78.781423093310593</v>
+      </c>
+      <c r="E7">
+        <v>90.668939071154597</v>
+      </c>
+      <c r="F7">
+        <v>97.656582871751098</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>34.7677886663826</v>
+      </c>
+      <c r="C8">
         <v>57.179377929271404</v>
       </c>
-      <c r="C4">
-        <v>90.967192160204505</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>49.7656582871751</v>
-      </c>
-      <c r="C5">
-        <v>81.721346399659097</v>
-      </c>
-      <c r="D5">
-        <v>96.804431188751593</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>45.164039198977399</v>
-      </c>
-      <c r="C6">
-        <v>75.415423945462294</v>
-      </c>
-      <c r="D6">
-        <v>92.415850021303797</v>
-      </c>
-      <c r="E6">
-        <v>98.380911802300801</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>44.737963357477597</v>
-      </c>
-      <c r="C7">
-        <v>73.498082658713201</v>
-      </c>
-      <c r="D7">
-        <v>89.092458457605403</v>
-      </c>
-      <c r="E7">
-        <v>96.889646357051504</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D8">
+        <v>74.392841925862797</v>
+      </c>
+      <c r="E8">
+        <v>86.749041329356601</v>
+      </c>
+      <c r="F8">
+        <v>94.674051981252603</v>
+      </c>
+      <c r="G8">
+        <v>99.020025564550394</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>35.4069024286323</v>
-      </c>
-      <c r="C8">
-        <v>64.167021729867898</v>
-      </c>
-      <c r="D8">
-        <v>82.658713250958598</v>
-      </c>
-      <c r="E8">
-        <v>93.097571367703395</v>
-      </c>
-      <c r="F8">
-        <v>98.210481465700894</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="B9">
-        <v>33.063485300383398</v>
+        <v>29.527055815935199</v>
       </c>
       <c r="C9">
-        <v>58.287175117170797</v>
+        <v>51.086493395824398</v>
       </c>
       <c r="D9">
-        <v>77.034512143161393</v>
+        <v>69.194716659565401</v>
       </c>
       <c r="E9">
-        <v>88.495952279505701</v>
+        <v>81.593523647209196</v>
       </c>
       <c r="F9">
-        <v>94.290583723902799</v>
+        <v>90.839369407754504</v>
       </c>
       <c r="G9">
-        <v>98.210481465700894</v>
+        <v>96.335747763101807</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>98.977417980400503</v>
       </c>
       <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>25.862803579036999</v>
-      </c>
-      <c r="C10">
-        <v>47.337025990626302</v>
-      </c>
-      <c r="D10">
-        <v>64.891350660417501</v>
-      </c>
-      <c r="E10">
-        <v>77.716233489561105</v>
-      </c>
-      <c r="F10">
-        <v>87.643800596506097</v>
-      </c>
-      <c r="G10">
-        <v>94.290583723902799</v>
-      </c>
-      <c r="H10">
-        <v>98.082658713250893</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
         <v>100</v>
       </c>
     </row>
@@ -3748,16 +3609,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3782,45 +3643,312 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>71.964209629313999</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>57.179377929271404</v>
+      </c>
+      <c r="C4">
+        <v>90.967192160204505</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>49.7656582871751</v>
+      </c>
+      <c r="C5">
+        <v>81.721346399659097</v>
+      </c>
+      <c r="D5">
+        <v>96.804431188751593</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>45.164039198977399</v>
+      </c>
+      <c r="C6">
+        <v>75.415423945462294</v>
+      </c>
+      <c r="D6">
+        <v>92.415850021303797</v>
+      </c>
+      <c r="E6">
+        <v>98.380911802300801</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>33.915636983383003</v>
+      </c>
+      <c r="C7">
+        <v>58.244567533020799</v>
+      </c>
+      <c r="D7">
+        <v>75.031955688112404</v>
+      </c>
+      <c r="E7">
+        <v>88.708990200255599</v>
+      </c>
+      <c r="F7">
+        <v>96.676608436301606</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>29.995739241584999</v>
+      </c>
+      <c r="C8">
+        <v>52.876011930123497</v>
+      </c>
+      <c r="D8">
+        <v>69.5355773327652</v>
+      </c>
+      <c r="E8">
+        <v>83.212611844908395</v>
+      </c>
+      <c r="F8">
+        <v>92.245419684703805</v>
+      </c>
+      <c r="G8">
+        <v>98.167873881550904</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>25.862803579036999</v>
+      </c>
+      <c r="C9">
+        <v>47.337025990626302</v>
+      </c>
+      <c r="D9">
+        <v>64.891350660417501</v>
+      </c>
+      <c r="E9">
+        <v>77.716233489561105</v>
+      </c>
+      <c r="F9">
+        <v>87.643800596506097</v>
+      </c>
+      <c r="G9">
+        <v>94.290583723902799</v>
+      </c>
+      <c r="H9">
+        <v>98.082658713250893</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3">
         <v>68.981678738815503</v>
@@ -3846,13 +3974,10 @@
       <c r="I3">
         <v>100</v>
       </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>53.344695355773297</v>
@@ -3878,13 +4003,10 @@
       <c r="I4">
         <v>100</v>
       </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>44.482317852577701</v>
@@ -3910,13 +4032,10 @@
       <c r="I5">
         <v>100</v>
       </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>38.261610566680801</v>
@@ -3942,135 +4061,91 @@
       <c r="I6">
         <v>100</v>
       </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>31.1887515977844</v>
+      </c>
+      <c r="C7">
+        <v>54.154239454622903</v>
+      </c>
+      <c r="D7">
+        <v>71.367703451214297</v>
+      </c>
+      <c r="E7">
+        <v>85.044737963357406</v>
+      </c>
+      <c r="F7">
+        <v>94.503621644652696</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>39.497230507030203</v>
-      </c>
-      <c r="C7">
-        <v>68.129527055815899</v>
-      </c>
-      <c r="D7">
-        <v>85.129953131657402</v>
-      </c>
-      <c r="E7">
-        <v>94.674051981252603</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>26.927993182786501</v>
+      </c>
+      <c r="C8">
+        <v>47.592671495526197</v>
+      </c>
+      <c r="D8">
+        <v>65.189603749467395</v>
+      </c>
+      <c r="E8">
+        <v>78.781423093310593</v>
+      </c>
+      <c r="F8">
+        <v>88.581167447805697</v>
+      </c>
+      <c r="G8">
+        <v>97.017469109501405</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>31.146144013634402</v>
-      </c>
-      <c r="C8">
-        <v>59.1819343843204</v>
-      </c>
-      <c r="D8">
-        <v>77.844056242011007</v>
-      </c>
-      <c r="E8">
-        <v>89.007243289305407</v>
-      </c>
-      <c r="F8">
-        <v>97.230507030251303</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="B9">
-        <v>28.5470813804857</v>
+        <v>22.9654878568385</v>
       </c>
       <c r="C9">
-        <v>52.620366425223601</v>
+        <v>41.883255219429003</v>
       </c>
       <c r="D9">
-        <v>70.941627609714502</v>
+        <v>59.565402641670197</v>
       </c>
       <c r="E9">
-        <v>84.235193864507806</v>
+        <v>73.157221985513402</v>
       </c>
       <c r="F9">
+        <v>84.192586280357901</v>
+      </c>
+      <c r="G9">
         <v>91.861951427354001</v>
       </c>
-      <c r="G9">
-        <v>97.528760119301197</v>
-      </c>
       <c r="H9">
-        <v>100</v>
+        <v>97.315722198551299</v>
       </c>
       <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>22.9654878568385</v>
-      </c>
-      <c r="C10">
-        <v>41.883255219429003</v>
-      </c>
-      <c r="D10">
-        <v>59.565402641670197</v>
-      </c>
-      <c r="E10">
-        <v>73.157221985513402</v>
-      </c>
-      <c r="F10">
-        <v>84.192586280357901</v>
-      </c>
-      <c r="G10">
-        <v>91.861951427354001</v>
-      </c>
-      <c r="H10">
-        <v>97.315722198551299</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
         <v>100</v>
       </c>
     </row>
